--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bertaruiz/Desktop/BERTA/ESTUDIOS/UNIVERSIDAD/MÁSTER GD/TFM/PAPER/START/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F9EAF3-7799-FA4D-8A4B-5D5E8432BA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB663E1-C2FC-AF43-BA01-771BA1F94FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="12260" windowHeight="12580" activeTab="4" xr2:uid="{04256E5A-9FC3-4ED9-8234-05D2531DDDEE}"/>
   </bookViews>
@@ -655,7 +655,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F19"/>
+      <selection sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1143,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1163,7 +1163,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1186,7 +1186,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1221,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1261,13 +1261,13 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1370,10 +1370,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1393,13 +1393,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1425,10 +1425,10 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1537,13 +1537,13 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bertaruiz/Desktop/BERTA/ESTUDIOS/UNIVERSIDAD/MÁSTER GD/TFM/PAPER/START/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB663E1-C2FC-AF43-BA01-771BA1F94FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC0EBD0-D85C-B243-B55B-11B6711BF70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="12260" windowHeight="12580" activeTab="4" xr2:uid="{04256E5A-9FC3-4ED9-8234-05D2531DDDEE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="12260" windowHeight="12580" activeTab="2" xr2:uid="{04256E5A-9FC3-4ED9-8234-05D2531DDDEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>N periods</t>
   </si>
@@ -72,6 +72,27 @@
   </si>
   <si>
     <t>Max periods</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Enfermero</t>
+  </si>
+  <si>
+    <t>Anestesista</t>
+  </si>
+  <si>
+    <t>Cirujano</t>
+  </si>
+  <si>
+    <t>Pediatra</t>
+  </si>
+  <si>
+    <t>Ginecologo</t>
+  </si>
+  <si>
+    <t>Médico de familia</t>
   </si>
 </sst>
 </file>
@@ -581,67 +602,91 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4881C639-351C-43B8-B9DD-234D25D73EF1}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2</v>
       </c>
     </row>
@@ -1106,7 +1151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B57DF47-718C-4F4A-9599-E90E895B861B}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
